--- a/Outputs/Discharge/Rating Curve Plots.xlsx
+++ b/Outputs/Discharge/Rating Curve Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8373EFF-EF00-40BC-AAB0-D62C05B2D738}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C16F098-4CD7-49C6-95AD-CB1C310F96BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{3D4B17CD-1B51-437D-8BCB-58CF5AAF363D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="3" xr2:uid="{3D4B17CD-1B51-437D-8BCB-58CF5AAF363D}"/>
   </bookViews>
   <sheets>
     <sheet name="Station 1 Rating Curve" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
             <c:v>Rating Curve</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -272,64 +272,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.7844706911636046E-2"/>
-                  <c:y val="0.23951188393117526"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.8303149606299211E-2"/>
-                  <c:y val="0.15617855059784194"/>
+                  <c:x val="-0.14615529308836395"/>
+                  <c:y val="5.9768518518518519E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -364,10 +315,37 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Station 1 Rating Curve'!$D$2:$D$13</c:f>
+              <c:f>'Station 1 Rating Curve'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>0.16889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15490000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Station 1 Rating Curve'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3.925E-2</c:v>
                 </c:pt>
@@ -389,32 +367,8 @@
                 <c:pt idx="11">
                   <c:v>1.1462500000000205E-2</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Station 1 Rating Curve'!$E$2:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="2">
-                  <c:v>0.16889999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17874999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1986</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.16220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15490000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15490000000000001</c:v>
+                <c:pt idx="12">
+                  <c:v>1.9750000000000119E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -478,17 +432,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Discharge</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (m^3/s)</a:t>
+                  <a:t>Level (mH2O)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43286701662292215"/>
+              <c:y val="0.87868037328667248"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -600,12 +558,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Level</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (mH2O)</a:t>
+                  <a:t>Discharge (m)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1167,7 +1121,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>rge</a:t>
+                  <a:t>Discharge</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1378,7 +1332,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1429,8 +1383,59 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.8983377077865264E-2"/>
-                  <c:y val="0.21717592592592594"/>
+                  <c:x val="0.10513932633420822"/>
+                  <c:y val="0.25078849518810148"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24363845144356955"/>
+                  <c:y val="0.10143518518518518"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1465,6 +1470,36 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>'Station 3 Rating Curve'!$E$7:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.2102458696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24191327419999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32168087119999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2443555036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17703358919999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1606059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19554150719999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>'Station 3 Rating Curve'!$D$7:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1489,36 +1524,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.7525000000000093E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Station 3 Rating Curve'!$E$7:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.2102458696</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24191327419999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.32168087119999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2443555036</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17703358919999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1606059</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19554150719999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,13 +1588,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Discharge</a:t>
+                  <a:t>m(H2O)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (m^3/s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1705,8 +1705,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>mH2O</a:t>
+                  <a:t>Discharge</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (m^3/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1924,7 +1929,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1955,45 +1960,10 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.13900284339457566"/>
-                  <c:y val="0.28199074074074076"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
             <c:spPr>
@@ -2005,14 +1975,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.8884514435695534E-4"/>
-                  <c:y val="7.8926436278798487E-2"/>
+                  <c:x val="-0.11040485564304457"/>
+                  <c:y val="-3.2315543890347041E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2047,6 +2018,36 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>'Station 4 Rating Curve'!$E$7:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21569627299999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24453905319999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31944768439999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24490615239999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17671747599999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16108516840000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19817238479999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>'Station 4 Rating Curve'!$D$7:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2071,36 +2072,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.9800000000000109E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Station 4 Rating Curve'!$E$7:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.21569627299999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24453905319999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31944768439999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.24490615239999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17671747599999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16108516840000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19817238479999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2164,17 +2135,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Discharge</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (m^3/s)</a:t>
+                  <a:t>mH2O</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.5109363517060368"/>
+              <c:y val="0.90645815106445027"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2287,8 +2262,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>mH2O</a:t>
+                  <a:t>Discharge</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (m^3/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4650,16 +4630,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4697,10 +4677,10 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4774,15 +4754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5110,7 +5090,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5380,8 +5360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E78F823-04A9-482A-86C2-E79FA16E1913}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5612,7 +5592,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5834,8 +5814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFD2133-FBE0-4AE7-B42A-9E594457259C}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Outputs/Discharge/Rating Curve Plots.xlsx
+++ b/Outputs/Discharge/Rating Curve Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C16F098-4CD7-49C6-95AD-CB1C310F96BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E06A83E-CDE6-4E19-ADDD-836BEB10AB0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="3" xr2:uid="{3D4B17CD-1B51-437D-8BCB-58CF5AAF363D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{3D4B17CD-1B51-437D-8BCB-58CF5AAF363D}"/>
   </bookViews>
   <sheets>
     <sheet name="Station 1 Rating Curve" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,13 +141,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5089,8 +5096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A749A7-02E1-4E99-AF70-C279FF5E3264}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5155,6 +5162,7 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -5287,6 +5295,7 @@
       <c r="B10" s="1">
         <v>43672</v>
       </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -5349,6 +5358,7 @@
       <c r="D14">
         <v>1.9750000000000119E-3</v>
       </c>
+      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5361,7 +5371,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5413,6 +5423,7 @@
       <c r="D3">
         <v>4.4000000000000003E-3</v>
       </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -5531,6 +5542,7 @@
       <c r="C11" s="2">
         <v>0.65625</v>
       </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -5579,6 +5591,7 @@
       <c r="D14">
         <v>6.4700000000000001E-3</v>
       </c>
+      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5592,7 +5605,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5639,6 +5652,7 @@
       <c r="D3">
         <v>3.9274999999999997E-2</v>
       </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -5803,6 +5817,7 @@
       <c r="D14">
         <v>1.6750000000000022E-2</v>
       </c>
+      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5814,8 +5829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFD2133-FBE0-4AE7-B42A-9E594457259C}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5862,6 +5877,7 @@
       <c r="D3">
         <v>2.7404999999999999E-2</v>
       </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -6028,6 +6044,7 @@
       <c r="D14">
         <v>6.8250000000000142E-3</v>
       </c>
+      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Outputs/Discharge/Rating Curve Plots.xlsx
+++ b/Outputs/Discharge/Rating Curve Plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Discharge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARMur\OneDrive - University of North Carolina at Chapel Hill\Ecuador\Github\Ecuador\Outputs\Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C16F098-4CD7-49C6-95AD-CB1C310F96BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C16F098-4CD7-49C6-95AD-CB1C310F96BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="3" xr2:uid="{3D4B17CD-1B51-437D-8BCB-58CF5AAF363D}"/>
+    <workbookView minimized="1" xWindow="8328" yWindow="1854" windowWidth="12432" windowHeight="6072" firstSheet="2" activeTab="3" xr2:uid="{3D4B17CD-1B51-437D-8BCB-58CF5AAF363D}"/>
   </bookViews>
   <sheets>
     <sheet name="Station 1 Rating Curve" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5093,16 +5099,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" customWidth="1"/>
+    <col min="3" max="4" width="11.47265625" customWidth="1"/>
+    <col min="5" max="5" width="12.47265625" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" customWidth="1"/>
+    <col min="7" max="7" width="14.26171875" customWidth="1"/>
+    <col min="8" max="8" width="12.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5131,7 +5137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5145,7 +5151,7 @@
         <v>3.925E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5156,7 +5162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5173,7 +5179,7 @@
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5182,7 +5188,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>0.56944444444444442</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -5224,7 +5230,7 @@
         <v>0.17609520000000067</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -5255,7 +5261,7 @@
         <v>0.19591900000000084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5280,7 +5286,7 @@
         <v>-4.0472999999998649E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -5288,7 +5294,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5305,7 +5311,7 @@
         <v>0.16220000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>0.15490000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -5339,7 +5345,7 @@
         <v>0.15490000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <v>43684</v>
       </c>
@@ -5364,12 +5370,12 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -5386,7 +5392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5400,7 +5406,7 @@
         <v>1.0425E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5414,7 +5420,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5431,7 +5437,7 @@
         <v>0.1699</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5448,7 +5454,7 @@
         <v>0.43280000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5459,7 +5465,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5476,7 +5482,7 @@
         <v>0.16969999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5504,7 +5510,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5521,7 +5527,7 @@
         <v>0.21529999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5532,7 +5538,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>0.1454</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5566,7 +5572,7 @@
         <v>0.19189999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5595,13 +5601,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.89453125" customWidth="1"/>
+    <col min="5" max="5" width="11.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -5618,7 +5624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5629,7 +5635,7 @@
         <v>4.4850000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5640,7 +5646,7 @@
         <v>3.9274999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5649,7 +5655,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5660,7 +5666,7 @@
         <v>6.5449999999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>5.1075000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5688,7 +5694,7 @@
         <v>0.2102458696</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5705,7 +5711,7 @@
         <v>0.24191327419999997</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5722,7 +5728,7 @@
         <v>0.32168087119999994</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -5739,7 +5745,7 @@
         <v>0.2443555036</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5756,7 +5762,7 @@
         <v>0.17703358919999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -5773,7 +5779,7 @@
         <v>0.1606059</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -5790,7 +5796,7 @@
         <v>0.19554150719999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5818,13 +5824,13 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5234375" customWidth="1"/>
+    <col min="5" max="5" width="11.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -5841,7 +5847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5852,7 +5858,7 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5863,7 +5869,7 @@
         <v>2.7404999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5874,7 +5880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5885,7 +5891,7 @@
         <v>0.1087</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5896,7 +5902,7 @@
         <v>5.0549999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5913,7 +5919,7 @@
         <v>0.21569627299999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5930,7 +5936,7 @@
         <v>0.24453905319999997</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5947,7 +5953,7 @@
         <v>0.31944768439999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5964,7 +5970,7 @@
         <v>0.24490615239999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5981,7 +5987,7 @@
         <v>0.17671747599999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5998,7 +6004,7 @@
         <v>0.16108516840000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6015,7 +6021,7 @@
         <v>0.19817238479999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>

--- a/Outputs/Discharge/Rating Curve Plots.xlsx
+++ b/Outputs/Discharge/Rating Curve Plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Discharge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARMur\OneDrive - University of North Carolina at Chapel Hill\Ecuador\Github\Ecuador\Outputs\Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E06A83E-CDE6-4E19-ADDD-836BEB10AB0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C16F098-4CD7-49C6-95AD-CB1C310F96BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{3D4B17CD-1B51-437D-8BCB-58CF5AAF363D}"/>
+    <workbookView minimized="1" xWindow="8328" yWindow="1854" windowWidth="12432" windowHeight="6072" firstSheet="2" activeTab="3" xr2:uid="{3D4B17CD-1B51-437D-8BCB-58CF5AAF363D}"/>
   </bookViews>
   <sheets>
     <sheet name="Station 1 Rating Curve" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -109,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,12 +125,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,14 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5096,20 +5095,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A749A7-02E1-4E99-AF70-C279FF5E3264}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" customWidth="1"/>
+    <col min="3" max="4" width="11.47265625" customWidth="1"/>
+    <col min="5" max="5" width="12.47265625" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" customWidth="1"/>
+    <col min="7" max="7" width="14.26171875" customWidth="1"/>
+    <col min="8" max="8" width="12.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5152,7 +5151,7 @@
         <v>3.925E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5162,9 +5161,8 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5181,7 +5179,7 @@
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5190,7 +5188,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -5201,7 +5199,7 @@
         <v>0.56944444444444442</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -5232,7 +5230,7 @@
         <v>0.17609520000000067</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -5263,7 +5261,7 @@
         <v>0.19591900000000084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5288,16 +5286,15 @@
         <v>-4.0472999999998649E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>43672</v>
       </c>
-      <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5314,7 +5311,7 @@
         <v>0.16220000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -5331,7 +5328,7 @@
         <v>0.15490000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -5348,7 +5345,7 @@
         <v>0.15490000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <v>43684</v>
       </c>
@@ -5358,7 +5355,6 @@
       <c r="D14">
         <v>1.9750000000000119E-3</v>
       </c>
-      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5371,15 +5367,15 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -5396,7 +5392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5410,7 +5406,7 @@
         <v>1.0425E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5423,9 +5419,8 @@
       <c r="D3">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5442,7 +5437,7 @@
         <v>0.1699</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5459,7 +5454,7 @@
         <v>0.43280000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5470,7 +5465,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5487,7 +5482,7 @@
         <v>0.16969999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5504,7 +5499,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5515,7 +5510,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5532,7 +5527,7 @@
         <v>0.21529999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5542,9 +5537,8 @@
       <c r="C11" s="2">
         <v>0.65625</v>
       </c>
-      <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -5561,7 +5555,7 @@
         <v>0.1454</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5578,7 +5572,7 @@
         <v>0.19189999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5591,7 +5585,6 @@
       <c r="D14">
         <v>6.4700000000000001E-3</v>
       </c>
-      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5605,16 +5598,16 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.89453125" customWidth="1"/>
+    <col min="5" max="5" width="11.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -5631,7 +5624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5642,7 +5635,7 @@
         <v>4.4850000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5652,9 +5645,8 @@
       <c r="D3">
         <v>3.9274999999999997E-2</v>
       </c>
-      <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5663,7 +5655,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5674,7 +5666,7 @@
         <v>6.5449999999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5685,7 +5677,7 @@
         <v>5.1075000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5702,7 +5694,7 @@
         <v>0.2102458696</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5719,7 +5711,7 @@
         <v>0.24191327419999997</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5736,7 +5728,7 @@
         <v>0.32168087119999994</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -5753,7 +5745,7 @@
         <v>0.2443555036</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5770,7 +5762,7 @@
         <v>0.17703358919999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -5787,7 +5779,7 @@
         <v>0.1606059</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -5804,7 +5796,7 @@
         <v>0.19554150719999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5817,7 +5809,6 @@
       <c r="D14">
         <v>1.6750000000000022E-2</v>
       </c>
-      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5829,17 +5820,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFD2133-FBE0-4AE7-B42A-9E594457259C}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5234375" customWidth="1"/>
+    <col min="5" max="5" width="11.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -5856,7 +5847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5867,7 +5858,7 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5877,9 +5868,8 @@
       <c r="D3">
         <v>2.7404999999999999E-2</v>
       </c>
-      <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5890,7 +5880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5901,7 +5891,7 @@
         <v>0.1087</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5912,7 +5902,7 @@
         <v>5.0549999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5929,7 +5919,7 @@
         <v>0.21569627299999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5946,7 +5936,7 @@
         <v>0.24453905319999997</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5963,7 +5953,7 @@
         <v>0.31944768439999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5980,7 +5970,7 @@
         <v>0.24490615239999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5997,7 +5987,7 @@
         <v>0.17671747599999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -6014,7 +6004,7 @@
         <v>0.16108516840000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6031,7 +6021,7 @@
         <v>0.19817238479999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -6044,7 +6034,6 @@
       <c r="D14">
         <v>6.8250000000000142E-3</v>
       </c>
-      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
